--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.45</v>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.39</v>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2109,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2125,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2141,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,433 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1577</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1577</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1322</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1322</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+      <c r="D6" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -892,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -943,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>014133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>工银中证500六个月持有指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1809</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -981,150 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>014134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>工银中证500六个月持有指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1288</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1189,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3594</t>
+          <t>0.2262</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1227,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1265,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1303,36 +885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1341,36 +923,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,7 +1271,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1605,36 +1301,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2262</t>
+          <t>0.3594</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1643,36 +1339,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1681,36 +1377,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1719,36 +1415,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1757,150 +1453,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013802</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013803</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通资管中证钢铁指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1935,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1965,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.1809</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2003,36 +1585,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014134</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.1288</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +1742,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.74</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000709-河钢股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -583,6 +600,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1237,252 +1536,6 @@
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3594</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1557,26 +1610,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1809</t>
+          <t>0.3594</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1585,36 +1638,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1288</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1623,36 +1676,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0734</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1671,26 +1724,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1714,12 +1767,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1728,7 +1781,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1737,6 +1790,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
